--- a/raw/1972election.xlsx
+++ b/raw/1972election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AF5BF-626B-1E4C-B08E-9B37F46EDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467F53B-5099-D041-AAD4-4C85409C7CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1620" windowWidth="16380" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6361" uniqueCount="1817">
   <si>
     <t>State</t>
   </si>
@@ -6685,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D376" sqref="D376"/>
+    <sheetView tabSelected="1" topLeftCell="C333" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14"/>
@@ -14454,8 +14454,8 @@
       <c r="C343" t="s">
         <v>1020</v>
       </c>
-      <c r="D343" t="s">
-        <v>25</v>
+      <c r="D343">
+        <v>3</v>
       </c>
       <c r="E343" t="s">
         <v>289</v>
@@ -16948,8 +16948,8 @@
       <c r="C456" t="s">
         <v>18</v>
       </c>
-      <c r="D456" t="s">
-        <v>32</v>
+      <c r="D456">
+        <v>4</v>
       </c>
       <c r="E456" t="s">
         <v>1314</v>
@@ -16971,8 +16971,8 @@
       <c r="C457" t="s">
         <v>18</v>
       </c>
-      <c r="D457" t="s">
-        <v>32</v>
+      <c r="D457">
+        <v>4</v>
       </c>
       <c r="E457" t="s">
         <v>1315</v>
@@ -17086,8 +17086,8 @@
       <c r="C462" t="s">
         <v>18</v>
       </c>
-      <c r="D462" t="s">
-        <v>50</v>
+      <c r="D462">
+        <v>7</v>
       </c>
       <c r="E462" t="s">
         <v>1319</v>
@@ -17109,8 +17109,8 @@
       <c r="C463" t="s">
         <v>18</v>
       </c>
-      <c r="D463" t="s">
-        <v>50</v>
+      <c r="D463">
+        <v>7</v>
       </c>
       <c r="E463" t="s">
         <v>1320</v>
